--- a/History_Files/200_Message_History.xlsx
+++ b/History_Files/200_Message_History.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,90 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>&lt;STX&gt;206.197.159.56^WMSSEND^10.55.214.50^ORDERCONTROL^ORDERHDR^02027^ORDERHDR^ADD^20250528002^00055877010332458404^ABC032^TR6^^^^^SHORT:EACH_PICK:TOTE:NO&lt;ETX&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[{'field_name': 'Publisher Location', 'received_value': '206.197.159.56', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Publisher Type', 'received_value': 'WMSSEND', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Location', 'received_value': '10.55.214.50', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Type ', 'received_value': 'ORDERCONTROL', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Sequence Number', 'received_value': '02027', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Message Command', 'received_value': 'ADD', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Wave ID', 'received_value': '20250528002', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Order ID', 'received_value': '00055877010332458404', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Store ID', 'received_value': 'ABC032', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Shipment ID', 'received_value': 'TR6', 'field_required': 'O', 'required_length': 50}, {'field_name': 'Sequence#', 'received_value': None, 'field_required': 'O', 'required_length': 8}, {'field_name': 'Order Priority', 'received_value': None, 'field_required': 'O', 'required_length': 1}, {'field_name': 'Destination', 'received_value': None, 'field_required': 'O', 'required_length': 50}, {'field_name': 'ReleaseTimestamp', 'received_value': None, 'field_required': 'O', 'required_length': 10}, {'field_name': 'Container Size', 'received_value': 'SHORT', 'field_required': 'O', 'required_length': 10}, {'field_name': 'Fulfillment Type', 'received_value': 'EACH_PICK', 'field_required': 'M', 'required_length': 15}, {'field_name': 'Container Type', 'received_value': 'TOTE', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Print Pick Document', 'received_value': 'NO', 'field_required': 'M', 'required_length': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>&lt;STX&gt;206.197.159.56^WMSSEND^10.55.214.50^ORDERCONTROL^ORDERHDR^02027^ORDERHDR^ADD^20250528002^00055877010332458404^ABC0329999999999999^TR6^^^^^SHORT:EACH_PICK:TOTE:NO&lt;ETX&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[{'field_name': 'Publisher Location', 'received_value': '206.197.159.56', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Publisher Type', 'received_value': 'WMSSEND', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Location', 'received_value': '10.55.214.50', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Type ', 'received_value': 'ORDERCONTROL', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Sequence Number', 'received_value': '02027', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Message Command', 'received_value': 'ADD', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Wave ID', 'received_value': '20250528002', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Order ID', 'received_value': '00055877010332458404', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Store ID', 'received_value': 'ABC0329999999999999', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Shipment ID', 'received_value': 'TR6', 'field_required': 'O', 'required_length': 50}, {'field_name': 'Sequence#', 'received_value': None, 'field_required': 'O', 'required_length': 8}, {'field_name': 'Order Priority', 'received_value': None, 'field_required': 'O', 'required_length': 1}, {'field_name': 'Destination', 'received_value': None, 'field_required': 'O', 'required_length': 50}, {'field_name': 'ReleaseTimestamp', 'received_value': None, 'field_required': 'O', 'required_length': 10}, {'field_name': 'Container Size', 'received_value': 'SHORT', 'field_required': 'O', 'required_length': 10}, {'field_name': 'Fulfillment Type', 'received_value': 'EACH_PICK', 'field_required': 'M', 'required_length': 15}, {'field_name': 'Container Type', 'received_value': 'TOTE', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Print Pick Document', 'received_value': 'NO', 'field_required': 'M', 'required_length': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>&lt;STX&gt;206.197.159.56^WMSSEND^10.55.214.50^ORDERCONTROL^ORDERHDR^02027^ORDERHDR^ADD^20250528002^00055877010332458404^ABC032^TR6^^^^^SHORT:EACH_PICK:TOTE:NO&lt;ETX&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[{'field_name': 'Publisher Location', 'received_value': '206.197.159.56', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Publisher Type', 'received_value': 'WMSSEND', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Location', 'received_value': '10.55.214.50', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Type ', 'received_value': 'ORDERCONTROL', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Sequence Number', 'received_value': '02027', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Message Command', 'received_value': 'ADD', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Wave ID', 'received_value': '20250528002', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Order ID', 'received_value': '00055877010332458404', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Store ID', 'received_value': 'ABC032', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Shipment ID', 'received_value': 'TR6', 'field_required': 'O', 'required_length': 50}, {'field_name': 'Sequence#', 'received_value': None, 'field_required': 'O', 'required_length': 8}, {'field_name': 'Order Priority', 'received_value': None, 'field_required': 'O', 'required_length': 1}, {'field_name': 'Destination', 'received_value': None, 'field_required': 'O', 'required_length': 50}, {'field_name': 'ReleaseTimestamp', 'received_value': None, 'field_required': 'O', 'required_length': 10}, {'field_name': 'Container Size', 'received_value': 'SHORT', 'field_required': 'O', 'required_length': 10}, {'field_name': 'Fulfillment Type', 'received_value': 'EACH_PICK', 'field_required': 'M', 'required_length': 15}, {'field_name': 'Container Type', 'received_value': 'TOTE', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Print Pick Document', 'received_value': 'NO', 'field_required': 'M', 'required_length': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>&lt;STX&gt;206.197.159.56^WMSSEND^10.55.214.50^ORDERCONTROL^ORDERHDR^02027^ORDERHDR^ADD^20250528002^00055877010332458404^ABC032^TR6^^^^^SHORT:EACH_PICK:TOTE:NO&lt;ETX&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[{'field_name': 'Publisher Location', 'received_value': '206.197.159.56', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Publisher Type', 'received_value': 'WMSSEND', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Location', 'received_value': '10.55.214.50', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Type ', 'received_value': 'ORDERCONTROL', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Sequence Number', 'received_value': '02027', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Message Command', 'received_value': 'ADD', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Wave ID', 'received_value': '20250528002', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Order ID', 'received_value': '00055877010332458404', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Store ID', 'received_value': 'ABC032', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Shipment ID', 'received_value': 'TR6', 'field_required': 'O', 'required_length': 50}, {'field_name': 'Sequence#', 'received_value': None, 'field_required': 'O', 'required_length': 8}, {'field_name': 'Order Priority', 'received_value': None, 'field_required': 'O', 'required_length': 1}, {'field_name': 'Destination', 'received_value': None, 'field_required': 'O', 'required_length': 50}, {'field_name': 'ReleaseTimestamp', 'received_value': None, 'field_required': 'O', 'required_length': 10}, {'field_name': 'Container Size', 'received_value': 'SHORT', 'field_required': 'O', 'required_length': 10}, {'field_name': 'Fulfillment Type', 'received_value': 'EACH_PICK', 'field_required': 'M', 'required_length': 15}, {'field_name': 'Container Type', 'received_value': 'TOTE', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Print Pick Document', 'received_value': 'NO', 'field_required': 'M', 'required_length': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>&lt;STX&gt;206.197.159.56^WMSSEND^10.55.214.50^ORDERCONTROL^ORDERHDR^02027^ORDERHDR^ADD^20250528002^00055877010332458404^ABC032^TR6^^^^^SHORT:EACH_PICK:TOTE:NO&lt;ETX&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[{'field_name': 'Publisher Location', 'received_value': '206.197.159.56', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Publisher Type', 'received_value': 'WMSSEND', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Location', 'received_value': '10.55.214.50', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Type ', 'received_value': 'ORDERCONTROL', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Sequence Number', 'received_value': '02027', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Message Command', 'received_value': 'ADD', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Wave ID', 'received_value': '20250528002', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Order ID', 'received_value': '00055877010332458404', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Store ID', 'received_value': 'ABC032', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Shipment ID', 'received_value': 'TR6', 'field_required': 'O', 'required_length': 50}, {'field_name': 'Sequence#', 'received_value': None, 'field_required': 'O', 'required_length': 8}, {'field_name': 'Order Priority', 'received_value': None, 'field_required': 'O', 'required_length': 1}, {'field_name': 'Destination', 'received_value': None, 'field_required': 'O', 'required_length': 50}, {'field_name': 'ReleaseTimestamp', 'received_value': None, 'field_required': 'O', 'required_length': 10}, {'field_name': 'Container Size', 'received_value': 'SHORT', 'field_required': 'O', 'required_length': 10}, {'field_name': 'Fulfillment Type', 'received_value': 'EACH_PICK', 'field_required': 'M', 'required_length': 15}, {'field_name': 'Container Type', 'received_value': 'TOTE', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Print Pick Document', 'received_value': 'NO', 'field_required': 'M', 'required_length': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>&lt;STX&gt;206.197.159.56^WMSSEND^10.55.214.50^ORDERCONTROL^ORDERHDR^02027^ORDERHDR^ADD^20250528002^00055877010332458404^ABC032^TR6^^^^^SHORT:EACH_PICK:TOTE:NO&lt;ETX&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[{'field_name': 'Publisher Location', 'received_value': '206.197.159.56', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Publisher Type', 'received_value': 'WMSSEND', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Location', 'received_value': '10.55.214.50', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Type ', 'received_value': 'ORDERCONTROL', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Sequence Number', 'received_value': '02027', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Message Command', 'received_value': 'ADD', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Wave ID', 'received_value': '20250528002', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Order ID', 'received_value': '00055877010332458404', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Store ID', 'received_value': 'ABC032', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Shipment ID', 'received_value': 'TR6', 'field_required': 'O', 'required_length': 50}, {'field_name': 'Sequence#', 'received_value': None, 'field_required': 'O', 'required_length': 8}, {'field_name': 'Order Priority', 'received_value': None, 'field_required': 'O', 'required_length': 1}, {'field_name': 'Destination', 'received_value': None, 'field_required': 'O', 'required_length': 50}, {'field_name': 'ReleaseTimestamp', 'received_value': None, 'field_required': 'O', 'required_length': 10}, {'field_name': 'Container Size', 'received_value': 'SHORT', 'field_required': 'O', 'required_length': 10}, {'field_name': 'Fulfillment Type', 'received_value': 'EACH_PICK', 'field_required': 'M', 'required_length': 15}, {'field_name': 'Container Type', 'received_value': 'TOTE', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Print Pick Document', 'received_value': 'NO', 'field_required': 'M', 'required_length': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>&lt;STX&gt;206.197.159.56^WMSSEND^10.55.214.50^ORDERCONTROL^ORDERHDR^02027^ORDERHDR^ADD^20250528002^00055877010332458404^ABC032^TR6^^^^^SHORT:EACH_PICK:TOTE:NO&lt;ETX&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[{'field_name': 'Publisher Location', 'received_value': '206.197.159.56', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Publisher Type', 'received_value': 'WMSSEND', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Location', 'received_value': '10.55.214.50', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Subscriber Type ', 'received_value': 'ORDERCONTROL', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Sequence Number', 'received_value': '02027', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Message Type', 'received_value': 'ORDERHDR', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Message Command', 'received_value': 'ADD', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Wave ID', 'received_value': '20250528002', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Order ID', 'received_value': '00055877010332458404', 'field_required': 'M', 'required_length': 50}, {'field_name': 'Store ID', 'received_value': 'ABC032', 'field_required': 'O', 'required_length': 20}, {'field_name': 'Shipment ID', 'received_value': 'TR6', 'field_required': 'O', 'required_length': 50}, {'field_name': 'Sequence#', 'received_value': None, 'field_required': 'O', 'required_length': 8}, {'field_name': 'Order Priority', 'received_value': None, 'field_required': 'O', 'required_length': 1}, {'field_name': 'Destination', 'received_value': None, 'field_required': 'O', 'required_length': 50}, {'field_name': 'ReleaseTimestamp', 'received_value': None, 'field_required': 'O', 'required_length': 10}, {'field_name': 'Container Size', 'received_value': 'SHORT', 'field_required': 'O', 'required_length': 10}, {'field_name': 'Fulfillment Type', 'received_value': 'EACH_PICK', 'field_required': 'M', 'required_length': 15}, {'field_name': 'Container Type', 'received_value': 'TOTE', 'field_required': 'M', 'required_length': 10}, {'field_name': 'Print Pick Document', 'received_value': 'NO', 'field_required': 'M', 'required_length': 3}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
